--- a/src/InsiteCommerce.Web/ImportExport/SampleImports/SampleImport_ProductRelatedProducts.xlsx
+++ b/src/InsiteCommerce.Web/ImportExport/SampleImports/SampleImport_ProductRelatedProducts.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Development\DesignDocs\4.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\InsiteCommerce\Legacy\InSiteCommerce.Web\ImportExport\SampleImports\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A866EA-B93A-4E04-9E6B-BE4B93ED45BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18150" windowHeight="7095"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Related Products" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>required</t>
   </si>
@@ -41,15 +42,9 @@
     <t>The lookup key to the related product</t>
   </si>
   <si>
-    <t>Product</t>
-  </si>
-  <si>
     <t>ProductRelationship</t>
   </si>
   <si>
-    <t>RelatedProduct</t>
-  </si>
-  <si>
     <t>CrossSell</t>
   </si>
   <si>
@@ -66,12 +61,27 @@
   </si>
   <si>
     <t>55542</t>
+  </si>
+  <si>
+    <t>Product.Product Number</t>
+  </si>
+  <si>
+    <t>Product Relationship System List Value.System List</t>
+  </si>
+  <si>
+    <t>Product Relationship System List Value.Name</t>
+  </si>
+  <si>
+    <t>Always 'ProductRelationship'</t>
+  </si>
+  <si>
+    <t>Related Product</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -394,33 +404,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="22.90625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="43.90625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="39" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.7265625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -430,60 +444,78 @@
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
